--- a/dropout-microusb/BOM .xlsx
+++ b/dropout-microusb/BOM .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\Github\macropad3\dropout-miniusb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\Github\macropad3\dropout-microusb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336E5F50-42A3-48B8-AE06-2FF545C6E98C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FC81F3-0DB3-4BD2-80DF-B8527ECD6007}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="840" windowWidth="24840" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="1035" windowWidth="24840" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="macropad3" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Reference</t>
   </si>
@@ -143,7 +143,13 @@
     <t>screws and poles (8mm)</t>
   </si>
   <si>
-    <t>mini usb, 39.5mmx23mm</t>
+    <t>microusb, default size</t>
+  </si>
+  <si>
+    <t>C1 C2</t>
+  </si>
+  <si>
+    <t>10nF</t>
   </si>
 </sst>
 </file>
@@ -999,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,6 +1203,20 @@
         <v>33</v>
       </c>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12">
+        <v>805</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
